--- a/data/output/FV2310_FV2304/MSCONS/13019.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13019.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3828" uniqueCount="353">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3849" uniqueCount="353">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1234,6 +1234,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U169" totalsRowShown="0">
+  <autoFilter ref="A1:U169"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1523,7 +1553,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9557,5 +9590,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/MSCONS/13019.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13019.xlsx
@@ -2169,7 +2169,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -3127,7 +3127,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3361,7 +3361,7 @@
       </c>
       <c r="K27" s="2"/>
       <c r="L27" s="4"/>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N27" s="2"/>
@@ -3551,7 +3551,7 @@
         <v>324</v>
       </c>
       <c r="L31" s="4"/>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N31" s="2" t="s">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3929,7 +3929,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4411,7 +4411,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4771,7 +4771,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -5067,7 +5067,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N62" s="2"/>
@@ -5157,7 +5157,7 @@
         <v>327</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5293,7 +5293,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5463,21 +5463,21 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
       <c r="J71" s="6" t="s">
         <v>298</v>
       </c>
@@ -5487,18 +5487,18 @@
       <c r="L71" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
       <c r="U71" s="6" t="s">
         <v>348</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>331</v>
       </c>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6019,7 +6019,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6325,7 +6325,7 @@
         <v>336</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6535,7 +6535,7 @@
         <v>336</v>
       </c>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6745,7 +6745,7 @@
         <v>338</v>
       </c>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -7169,7 +7169,7 @@
         <v>339</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7543,7 +7543,7 @@
         <v>341</v>
       </c>
       <c r="L111" s="4"/>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N111" s="2" t="s">
@@ -8831,7 +8831,7 @@
         <v>339</v>
       </c>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -10073,7 +10073,7 @@
         <v>343</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N164" s="2"/>
@@ -10519,7 +10519,7 @@
       </c>
       <c r="K167" s="2"/>
       <c r="L167" s="4"/>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N167" s="2"/>
